--- a/WAIC_V1.xlsx
+++ b/WAIC_V1.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">normal</t>
   </si>
   <si>
-    <t xml:space="preserve">normal_log</t>
+    <t xml:space="preserve">normal_log_HPV18</t>
   </si>
 </sst>
 </file>

--- a/WAIC_V1.xlsx
+++ b/WAIC_V1.xlsx
@@ -1,34 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D368E6-FE59-426A-947B-6889A103027B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">constant</t>
+    <t>constant</t>
   </si>
   <si>
-    <t xml:space="preserve">normal</t>
+    <t>normal</t>
   </si>
   <si>
-    <t xml:space="preserve">normal_log_HPV18</t>
+    <t>normal_log_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -37,15 +44,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -53,17 +66,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -345,48 +384,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>79.9845041683401</v>
-      </c>
-      <c r="B2" t="n">
-        <v>61.5749989056075</v>
-      </c>
-      <c r="C2" t="n">
-        <v>45.3857335469521</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>79.984504168340095</v>
+      </c>
+      <c r="B2" s="1">
+        <v>61.574998905607501</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45.385733546952103</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>21.6550503447035</v>
-      </c>
-      <c r="B3" t="n">
-        <v>13.8810302415049</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.62577701693813</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>21.655050344703501</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13.881030241504901</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.6257770169381303</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>